--- a/medicine/Mort/Grand_cimetière_de_Kuopio/Grand_cimetière_de_Kuopio.xlsx
+++ b/medicine/Mort/Grand_cimetière_de_Kuopio/Grand_cimetière_de_Kuopio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Kuopio</t>
+          <t>Grand_cimetière_de_Kuopio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grand cimetière de Kuopio (en finnois : Kuopion Iso hautausmaa) ou ancien cimetière (en finnois : Vanha hautausmaa) est un cimetière situé dans le quartier Puijo de Kuopio en Finlande[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand cimetière de Kuopio (en finnois : Kuopion Iso hautausmaa) ou ancien cimetière (en finnois : Vanha hautausmaa) est un cimetière situé dans le quartier Puijo de Kuopio en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Kuopio</t>
+          <t>Grand_cimetière_de_Kuopio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est fondé en 1867 et a été agrandi à plusieurs reprises au XXe siècle.
-Il s'étend sur 15 hectares[4].
-Le cimetière est délimité au sud par la ligne de Savonie, à l'ouest par les chapelles de bénédiction le long de Karjalankatu, le bâtiment du musée de l'église orthodoxe et du conseil de l'église orthodoxe, au nord par la route nationale 5 et à l'est par Puijonkatu[1],[5],[2],[3].
+Il s'étend sur 15 hectares.
+Le cimetière est délimité au sud par la ligne de Savonie, à l'ouest par les chapelles de bénédiction le long de Karjalankatu, le bâtiment du musée de l'église orthodoxe et du conseil de l'église orthodoxe, au nord par la route nationale 5 et à l'est par Puijonkatu.
 Le cimetière possède un carré orthodoxe établi au début du XXe siècle.
-Le cimetière abrite aussi le carré de soldats russes, les cosaques du Don, avec une chapelle commémorative construite en 1912[4],[6].
-Selon le Museovirasto, le grand cimetière du quartier de Multimäki représente la culture des cimetières finlandais d'une manière significative au niveau national[4].
-Le cimetière abrite également un bâtiment de service, un bureau du cimetière, un crématorium et les chapelles Saint-Marc et Saint-Pierre[2].
+Le cimetière abrite aussi le carré de soldats russes, les cosaques du Don, avec une chapelle commémorative construite en 1912,.
+Selon le Museovirasto, le grand cimetière du quartier de Multimäki représente la culture des cimetières finlandais d'une manière significative au niveau national.
+Le cimetière abrite également un bâtiment de service, un bureau du cimetière, un crématorium et les chapelles Saint-Marc et Saint-Pierre.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Kuopio</t>
+          <t>Grand_cimetière_de_Kuopio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnalités reposant au cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Minna Canth
